--- a/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
+++ b/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="412">
   <si>
     <t>ID</t>
   </si>
@@ -127,9 +127,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>登陆页面设计图</t>
-  </si>
-  <si>
     <t>1 个工作日</t>
   </si>
   <si>
@@ -881,9 +878,6 @@
   </si>
   <si>
     <t>创建域用户</t>
-  </si>
-  <si>
-    <t>陈亮,陈毅文</t>
   </si>
   <si>
     <t>76</t>
@@ -1254,6 +1248,26 @@
   </si>
   <si>
     <t>2013年12月26日 13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮,陈毅文,张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面设计图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前所有的图形页面设计完成，但是需要的HTML页面没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前暂时不需要这几个功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,12 +1377,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1383,7 +1415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1408,6 +1440,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1709,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1721,10 +1767,10 @@
     <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,13 +1799,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1">
+        <v>399</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1809,13 +1858,13 @@
         <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1844,13 +1893,13 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1879,13 +1928,13 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1908,7 +1957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1919,558 +1968,576 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
       <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
         <v>63</v>
       </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
         <v>69</v>
       </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
         <v>75</v>
       </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -2479,21 +2546,21 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -2502,56 +2569,56 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
         <v>95</v>
-      </c>
-      <c r="H25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -2560,511 +2627,511 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
         <v>97</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>98</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>99</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J26" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>102</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
         <v>103</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
         <v>99</v>
       </c>
-      <c r="G27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H32" t="s">
         <v>117</v>
       </c>
-      <c r="H30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" t="s">
-        <v>118</v>
-      </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>127</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>128</v>
       </c>
-      <c r="G33" t="s">
-        <v>129</v>
-      </c>
       <c r="J33" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" t="s">
         <v>131</v>
       </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" t="s">
-        <v>132</v>
-      </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
         <v>134</v>
       </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>135</v>
       </c>
-      <c r="G35" t="s">
-        <v>136</v>
-      </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
         <v>137</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
         <v>138</v>
       </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>139</v>
       </c>
-      <c r="G36" t="s">
-        <v>140</v>
-      </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
         <v>141</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
         <v>142</v>
       </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>143</v>
       </c>
-      <c r="G37" t="s">
-        <v>144</v>
-      </c>
       <c r="H37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
         <v>145</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
         <v>146</v>
       </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>147</v>
       </c>
-      <c r="G38" t="s">
-        <v>148</v>
-      </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
         <v>150</v>
       </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>151</v>
       </c>
-      <c r="G39" t="s">
-        <v>152</v>
-      </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
         <v>153</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
         <v>154</v>
       </c>
-      <c r="E40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>155</v>
-      </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -3073,97 +3140,97 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
       </c>
       <c r="F41" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" t="s">
         <v>158</v>
       </c>
-      <c r="G41" t="s">
-        <v>159</v>
-      </c>
       <c r="J41" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" t="s">
         <v>161</v>
       </c>
-      <c r="E42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" t="s">
-        <v>162</v>
-      </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
         <v>163</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" t="s">
         <v>164</v>
       </c>
-      <c r="E43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" t="s">
-        <v>165</v>
-      </c>
       <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
         <v>159</v>
       </c>
-      <c r="H43" t="s">
-        <v>160</v>
-      </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -3172,1033 +3239,1033 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
         <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
         <v>172</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>173</v>
-      </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
         <v>174</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
         <v>175</v>
       </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>176</v>
       </c>
-      <c r="G47" t="s">
-        <v>177</v>
-      </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
         <v>178</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
         <v>179</v>
       </c>
-      <c r="E48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>180</v>
       </c>
-      <c r="G48" t="s">
-        <v>181</v>
-      </c>
       <c r="H48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
         <v>182</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
         <v>183</v>
       </c>
-      <c r="E49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>184</v>
       </c>
-      <c r="G49" t="s">
-        <v>185</v>
-      </c>
       <c r="H49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
         <v>186</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
         <v>187</v>
       </c>
-      <c r="E50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>188</v>
-      </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
         <v>189</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
         <v>190</v>
       </c>
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>191</v>
       </c>
-      <c r="G51" t="s">
-        <v>192</v>
-      </c>
       <c r="H51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
         <v>193</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
         <v>194</v>
       </c>
-      <c r="E52" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>195</v>
       </c>
-      <c r="G52" t="s">
-        <v>196</v>
-      </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
         <v>197</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" t="s">
         <v>198</v>
       </c>
-      <c r="E53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>199</v>
       </c>
-      <c r="G53" t="s">
-        <v>200</v>
-      </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
         <v>201</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" t="s">
         <v>202</v>
       </c>
-      <c r="E54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>203</v>
       </c>
-      <c r="G54" t="s">
-        <v>204</v>
-      </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
         <v>205</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>206</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>207</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>208</v>
       </c>
-      <c r="G55" t="s">
-        <v>209</v>
-      </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
         <v>210</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
         <v>211</v>
       </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s">
-        <v>406</v>
-      </c>
-      <c r="G56" t="s">
-        <v>212</v>
-      </c>
       <c r="H56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
         <v>213</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" t="s">
         <v>214</v>
       </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s">
-        <v>407</v>
-      </c>
-      <c r="G57" t="s">
-        <v>215</v>
-      </c>
       <c r="H57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
         <v>216</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" t="s">
         <v>217</v>
       </c>
-      <c r="E58" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>408</v>
-      </c>
-      <c r="G58" t="s">
-        <v>218</v>
-      </c>
       <c r="H58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
         <v>219</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
         <v>220</v>
       </c>
-      <c r="E59" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" t="s">
-        <v>405</v>
-      </c>
-      <c r="G59" t="s">
-        <v>221</v>
-      </c>
       <c r="H59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I59" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
         <v>222</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
         <v>223</v>
       </c>
-      <c r="E60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>224</v>
       </c>
-      <c r="G60" t="s">
-        <v>225</v>
-      </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
         <v>227</v>
       </c>
-      <c r="E61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>228</v>
       </c>
-      <c r="G61" t="s">
-        <v>229</v>
-      </c>
       <c r="H61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I61" t="s">
         <v>21</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
         <v>230</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" t="s">
         <v>231</v>
       </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>232</v>
       </c>
-      <c r="G62" t="s">
-        <v>233</v>
-      </c>
       <c r="H62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
         <v>234</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
         <v>235</v>
       </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>236</v>
       </c>
-      <c r="G63" t="s">
-        <v>237</v>
-      </c>
       <c r="H63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I63" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
+        <v>237</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
         <v>238</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
         <v>239</v>
       </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>240</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>233</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
         <v>241</v>
       </c>
-      <c r="H64" t="s">
-        <v>234</v>
-      </c>
-      <c r="I64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
         <v>242</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
         <v>243</v>
       </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>244</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>237</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
         <v>245</v>
       </c>
-      <c r="H65" t="s">
-        <v>238</v>
-      </c>
-      <c r="I65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
         <v>246</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" t="s">
         <v>247</v>
       </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>248</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>241</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
         <v>249</v>
       </c>
-      <c r="H66" t="s">
-        <v>242</v>
-      </c>
-      <c r="I66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
         <v>250</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" t="s">
         <v>251</v>
       </c>
-      <c r="E67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>252</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>245</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
         <v>253</v>
       </c>
-      <c r="H67" t="s">
-        <v>246</v>
-      </c>
-      <c r="I67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
         <v>254</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" t="s">
         <v>255</v>
       </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>256</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
         <v>257</v>
       </c>
-      <c r="H68" t="s">
-        <v>250</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
         <v>258</v>
       </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" t="s">
         <v>259</v>
       </c>
-      <c r="E69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>260</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
         <v>261</v>
       </c>
-      <c r="H69" t="s">
-        <v>254</v>
-      </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
         <v>262</v>
       </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" t="s">
         <v>263</v>
       </c>
-      <c r="E70" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>264</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>257</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
         <v>265</v>
       </c>
-      <c r="H70" t="s">
-        <v>258</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
         <v>266</v>
       </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
         <v>267</v>
       </c>
-      <c r="E71" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>268</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>261</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
         <v>269</v>
       </c>
-      <c r="H71" t="s">
-        <v>262</v>
-      </c>
-      <c r="I71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
         <v>270</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" t="s">
         <v>271</v>
       </c>
-      <c r="E72" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>272</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>265</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
         <v>273</v>
       </c>
-      <c r="H72" t="s">
-        <v>266</v>
-      </c>
-      <c r="I72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
         <v>274</v>
       </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
         <v>275</v>
       </c>
-      <c r="E73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>276</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="1" customFormat="1">
+      <c r="A74" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="H73" t="s">
-        <v>270</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="1" customFormat="1">
-      <c r="A74" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -4207,21 +4274,21 @@
         <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="1" customFormat="1">
+      <c r="A75" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1">
-      <c r="A75" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -4230,190 +4297,188 @@
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:12" s="13" customFormat="1">
+      <c r="A76" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="I76" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" s="14"/>
+      <c r="K76" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="13" customFormat="1">
+      <c r="A77" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="L77" s="19"/>
+    </row>
+    <row r="78" spans="1:12" s="13" customFormat="1">
+      <c r="A78" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
-        <v>286</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="I78" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J78" s="14"/>
+      <c r="K78" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="L78" s="19"/>
+    </row>
+    <row r="79" spans="1:12" s="13" customFormat="1">
+      <c r="A79" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E76" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" t="s">
-        <v>63</v>
-      </c>
-      <c r="I76" t="s">
-        <v>288</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="I79" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="J79" s="14"/>
+      <c r="K79" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
+      <c r="L79" s="19"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
         <v>289</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>290</v>
-      </c>
-      <c r="E77" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" t="s">
-        <v>62</v>
-      </c>
-      <c r="G77" t="s">
-        <v>63</v>
-      </c>
-      <c r="I77" t="s">
-        <v>288</v>
-      </c>
-      <c r="J77" s="4" t="s">
+      <c r="I80" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="K80" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
-        <v>291</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" t="s">
-        <v>275</v>
-      </c>
-      <c r="E78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" t="s">
-        <v>286</v>
-      </c>
-      <c r="I78" t="s">
-        <v>288</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
-        <v>292</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="s">
-        <v>293</v>
-      </c>
-      <c r="E79" t="s">
-        <v>37</v>
-      </c>
-      <c r="F79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" t="s">
-        <v>69</v>
-      </c>
-      <c r="H79" t="s">
-        <v>289</v>
-      </c>
-      <c r="I79" t="s">
-        <v>288</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
-        <v>294</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>295</v>
-      </c>
-      <c r="E80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s">
-        <v>291</v>
-      </c>
-      <c r="I80" t="s">
-        <v>288</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -4422,33 +4487,33 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s">
         <v>74</v>
       </c>
-      <c r="G81" t="s">
-        <v>75</v>
-      </c>
       <c r="H81" t="s">
-        <v>292</v>
-      </c>
-      <c r="I81" t="s">
-        <v>288</v>
-      </c>
-      <c r="J81" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -4457,33 +4522,33 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s">
         <v>80</v>
       </c>
-      <c r="G82" t="s">
-        <v>81</v>
-      </c>
       <c r="H82" t="s">
-        <v>294</v>
-      </c>
-      <c r="I82" t="s">
-        <v>288</v>
-      </c>
-      <c r="J82" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="K82" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -4492,68 +4557,68 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s">
         <v>80</v>
       </c>
-      <c r="G83" t="s">
-        <v>81</v>
-      </c>
       <c r="H83" t="s">
-        <v>296</v>
-      </c>
-      <c r="I83" t="s">
-        <v>288</v>
-      </c>
-      <c r="J83" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
+        <v>300</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
         <v>302</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" t="s">
-        <v>303</v>
-      </c>
-      <c r="E84" t="s">
-        <v>37</v>
-      </c>
-      <c r="F84" t="s">
-        <v>304</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
-      </c>
-      <c r="I84" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J84" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K84" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -4562,68 +4627,68 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>300</v>
-      </c>
-      <c r="I85" t="s">
-        <v>288</v>
+        <v>298</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J85" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K85" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>306</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+      <c r="F86" t="s">
         <v>307</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="G86" t="s">
         <v>308</v>
       </c>
-      <c r="E86" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" t="s">
-        <v>310</v>
-      </c>
       <c r="H86" t="s">
-        <v>302</v>
-      </c>
-      <c r="I86" t="s">
-        <v>288</v>
+        <v>300</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J86" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K86" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -4632,68 +4697,68 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H87" t="s">
-        <v>305</v>
-      </c>
-      <c r="I87" t="s">
-        <v>288</v>
+        <v>303</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J87" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="G88" t="s">
         <v>314</v>
       </c>
-      <c r="E88" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" t="s">
-        <v>315</v>
-      </c>
-      <c r="G88" t="s">
-        <v>316</v>
-      </c>
       <c r="H88" t="s">
-        <v>307</v>
-      </c>
-      <c r="I88" t="s">
-        <v>288</v>
+        <v>305</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J88" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K88" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -4702,68 +4767,68 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H89" t="s">
-        <v>311</v>
-      </c>
-      <c r="I89" t="s">
-        <v>288</v>
+        <v>309</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J89" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K89" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
+        <v>317</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>318</v>
+      </c>
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
         <v>319</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="G90" t="s">
         <v>320</v>
       </c>
-      <c r="E90" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" t="s">
-        <v>321</v>
-      </c>
-      <c r="G90" t="s">
-        <v>322</v>
-      </c>
       <c r="H90" t="s">
-        <v>313</v>
-      </c>
-      <c r="I90" t="s">
-        <v>288</v>
+        <v>311</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J90" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -4772,68 +4837,68 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H91" t="s">
-        <v>317</v>
-      </c>
-      <c r="I91" t="s">
-        <v>288</v>
+        <v>315</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J91" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K91" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
+        <v>323</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>324</v>
+      </c>
+      <c r="E92" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" t="s">
         <v>325</v>
       </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
         <v>326</v>
       </c>
-      <c r="E92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>327</v>
-      </c>
-      <c r="G92" t="s">
-        <v>328</v>
-      </c>
       <c r="H92" t="s">
-        <v>319</v>
-      </c>
-      <c r="I92" t="s">
-        <v>288</v>
+        <v>317</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J92" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K92" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -4842,68 +4907,68 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G93" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H93" t="s">
-        <v>323</v>
-      </c>
-      <c r="I93" t="s">
-        <v>288</v>
+        <v>321</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J93" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K93" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" t="s">
         <v>330</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="G94" t="s">
         <v>331</v>
       </c>
-      <c r="E94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" t="s">
-        <v>332</v>
-      </c>
-      <c r="G94" t="s">
-        <v>333</v>
-      </c>
       <c r="H94" t="s">
-        <v>325</v>
-      </c>
-      <c r="I94" t="s">
-        <v>288</v>
+        <v>323</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J94" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K94" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -4912,68 +4977,68 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H95" t="s">
-        <v>329</v>
-      </c>
-      <c r="I95" t="s">
-        <v>288</v>
+        <v>327</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J95" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K95" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F96" t="s">
         <v>336</v>
       </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="G96" t="s">
         <v>337</v>
       </c>
-      <c r="E96" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" t="s">
-        <v>338</v>
-      </c>
-      <c r="G96" t="s">
-        <v>339</v>
-      </c>
       <c r="H96" t="s">
-        <v>330</v>
-      </c>
-      <c r="I96" t="s">
-        <v>288</v>
+        <v>328</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J96" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K96" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -4982,68 +5047,68 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G97" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H97" t="s">
-        <v>334</v>
-      </c>
-      <c r="I97" t="s">
-        <v>288</v>
+        <v>332</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J97" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K97" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
+        <v>340</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" t="s">
         <v>342</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>343</v>
       </c>
-      <c r="E98" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" t="s">
-        <v>344</v>
-      </c>
-      <c r="G98" t="s">
-        <v>345</v>
-      </c>
       <c r="H98" t="s">
-        <v>336</v>
-      </c>
-      <c r="I98" t="s">
-        <v>288</v>
+        <v>334</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J98" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K98" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -5052,68 +5117,68 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G99" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H99" t="s">
-        <v>340</v>
-      </c>
-      <c r="I99" t="s">
-        <v>288</v>
+        <v>338</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J99" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K99" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
+        <v>346</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>347</v>
+      </c>
+      <c r="E100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" t="s">
         <v>348</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="G100" t="s">
         <v>349</v>
       </c>
-      <c r="E100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" t="s">
-        <v>350</v>
-      </c>
-      <c r="G100" t="s">
-        <v>351</v>
-      </c>
       <c r="H100" t="s">
-        <v>342</v>
-      </c>
-      <c r="I100" t="s">
-        <v>288</v>
+        <v>340</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J100" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K100" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -5122,33 +5187,33 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G101" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
-        <v>346</v>
-      </c>
-      <c r="I101" t="s">
-        <v>288</v>
+        <v>344</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J101" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -5157,33 +5222,33 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
-      </c>
-      <c r="I102" t="s">
-        <v>288</v>
+        <v>346</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J102" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K102" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -5192,33 +5257,33 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H103" t="s">
-        <v>352</v>
-      </c>
-      <c r="I103" t="s">
-        <v>288</v>
+        <v>350</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="J103" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5227,91 +5292,91 @@
         <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
+        <v>361</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>362</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>359</v>
+      </c>
+      <c r="G105" t="s">
         <v>363</v>
       </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" t="s">
-        <v>364</v>
-      </c>
-      <c r="E105" t="s">
-        <v>103</v>
-      </c>
-      <c r="F105" t="s">
-        <v>361</v>
-      </c>
-      <c r="G105" t="s">
-        <v>365</v>
-      </c>
       <c r="H105" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I105" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" t="s">
         <v>366</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" t="s">
-        <v>367</v>
-      </c>
-      <c r="E106" t="s">
-        <v>103</v>
-      </c>
-      <c r="F106" t="s">
-        <v>368</v>
-      </c>
       <c r="G106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H106" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I106" t="s">
         <v>21</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5320,54 +5385,54 @@
         <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="K107" s="11"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
+        <v>372</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>373</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" t="s">
+        <v>370</v>
+      </c>
+      <c r="G108" t="s">
         <v>374</v>
       </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>375</v>
-      </c>
-      <c r="E108" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" t="s">
-        <v>372</v>
-      </c>
-      <c r="G108" t="s">
-        <v>376</v>
-      </c>
       <c r="I108" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -5376,208 +5441,208 @@
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G109" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I109" t="s">
         <v>21</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>378</v>
+      </c>
+      <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" t="s">
         <v>379</v>
       </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="G110" t="s">
         <v>380</v>
       </c>
-      <c r="E110" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" t="s">
-        <v>381</v>
-      </c>
-      <c r="G110" t="s">
-        <v>382</v>
-      </c>
       <c r="H110" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>382</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
         <v>383</v>
       </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>384</v>
-      </c>
-      <c r="E111" t="s">
-        <v>37</v>
-      </c>
-      <c r="F111" t="s">
-        <v>385</v>
-      </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
+        <v>384</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>385</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
         <v>386</v>
       </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="G112" t="s">
         <v>387</v>
       </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>388</v>
-      </c>
-      <c r="G112" t="s">
-        <v>389</v>
-      </c>
       <c r="H112" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
+        <v>388</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>301</v>
+      </c>
+      <c r="E113" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" t="s">
+        <v>389</v>
+      </c>
+      <c r="G113" t="s">
         <v>390</v>
       </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" t="s">
-        <v>303</v>
-      </c>
-      <c r="E113" t="s">
-        <v>37</v>
-      </c>
-      <c r="F113" t="s">
-        <v>391</v>
-      </c>
-      <c r="G113" t="s">
-        <v>392</v>
-      </c>
       <c r="H113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>310</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" t="s">
+        <v>392</v>
+      </c>
+      <c r="G114" t="s">
         <v>393</v>
       </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" t="s">
-        <v>312</v>
-      </c>
-      <c r="E114" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" t="s">
-        <v>394</v>
-      </c>
-      <c r="G114" t="s">
-        <v>395</v>
-      </c>
       <c r="H114" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -5586,31 +5651,35 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G115" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L7:L22"/>
+    <mergeCell ref="L76:L79"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
+++ b/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="414">
   <si>
     <t>ID</t>
   </si>
@@ -289,12 +289,6 @@
     <t>55 个工作日</t>
   </si>
   <si>
-    <t>2013年10月31日 8:00</t>
-  </si>
-  <si>
-    <t>2014年1月15日 17:00</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>2013年11月8日 8:00</t>
   </si>
   <si>
-    <t>2013年11月11日 17:00</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -364,9 +355,6 @@
     <t>个人资料修改</t>
   </si>
   <si>
-    <t>2013年11月13日 8:00</t>
-  </si>
-  <si>
     <t>2013年11月14日 17:00</t>
   </si>
   <si>
@@ -412,18 +400,12 @@
     <t>下单</t>
   </si>
   <si>
-    <t>2013年11月22日 17:00</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>确认订单</t>
   </si>
   <si>
-    <t>2013年11月25日 8:00</t>
-  </si>
-  <si>
     <t>2013年11月25日 17:00</t>
   </si>
   <si>
@@ -445,9 +427,6 @@
     <t>订单查看</t>
   </si>
   <si>
-    <t>2013年11月27日 8:00</t>
-  </si>
-  <si>
     <t>2013年11月27日 17:00</t>
   </si>
   <si>
@@ -460,18 +439,12 @@
     <t>2013年11月28日 8:00</t>
   </si>
   <si>
-    <t>2013年11月28日 17:00</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
     <t>订单作废</t>
   </si>
   <si>
-    <t>2013年11月29日 8:00</t>
-  </si>
-  <si>
     <t>2013年11月29日 17:00</t>
   </si>
   <si>
@@ -523,9 +496,6 @@
     <t>50 个工作日</t>
   </si>
   <si>
-    <t>2013年12月13日 17:00</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -547,18 +517,12 @@
     <t>2013年12月10日 8:00</t>
   </si>
   <si>
-    <t>2013年12月10日 17:00</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
     <t>删除订单</t>
   </si>
   <si>
-    <t>2013年12月11日 8:00</t>
-  </si>
-  <si>
     <t>2013年12月11日 17:00</t>
   </si>
   <si>
@@ -589,48 +553,24 @@
     <t>禁用租户</t>
   </si>
   <si>
-    <t>2013年12月16日 8:00</t>
-  </si>
-  <si>
-    <t>2013年12月16日 17:00</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
     <t>初始化租户密码</t>
   </si>
   <si>
-    <t>2013年12月17日 8:00</t>
-  </si>
-  <si>
-    <t>2013年12月17日 17:00</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
     <t>产品与服务配置管理</t>
   </si>
   <si>
-    <t>2013年12月18日 8:00</t>
-  </si>
-  <si>
-    <t>2013年12月19日 17:00</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
     <t>VMM列表</t>
   </si>
   <si>
-    <t>2013年12月20日 8:00</t>
-  </si>
-  <si>
-    <t>2013年12月20日 17:00</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -640,9 +580,6 @@
     <t>1.5 个工作日</t>
   </si>
   <si>
-    <t>2013年12月23日 8:00</t>
-  </si>
-  <si>
     <t>2013年12月24日 12:00</t>
   </si>
   <si>
@@ -715,18 +652,12 @@
     <t>2014年1月3日 13:00</t>
   </si>
   <si>
-    <t>2014年1月6日 12:00</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
     <t>删除ISO镜像</t>
   </si>
   <si>
-    <t>2014年1月6日 13:00</t>
-  </si>
-  <si>
     <t>2014年1月7日 12:00</t>
   </si>
   <si>
@@ -787,69 +718,36 @@
     <t>2014年1月13日 13:00</t>
   </si>
   <si>
-    <t>2014年1月15日 12:00</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
     <t>虚拟机网络交换机详情信息</t>
   </si>
   <si>
-    <t>2014年1月15日 13:00</t>
-  </si>
-  <si>
-    <t>2014年1月16日 12:00</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
     <t>添加域用户</t>
   </si>
   <si>
-    <t>2014年1月16日 13:00</t>
-  </si>
-  <si>
-    <t>2014年1月17日 12:00</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
     <t>域用户列表</t>
   </si>
   <si>
-    <t>2014年1月17日 13:00</t>
-  </si>
-  <si>
-    <t>2014年1月20日 12:00</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
     <t>编辑域用户</t>
   </si>
   <si>
-    <t>2014年1月20日 13:00</t>
-  </si>
-  <si>
-    <t>2014年1月21日 12:00</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
     <t>删除域用户</t>
   </si>
   <si>
-    <t>2014年1月21日 13:00</t>
-  </si>
-  <si>
-    <t>2014年1月22日 12:00</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -1132,9 +1030,6 @@
     <t>2014年1月29日 8:00</t>
   </si>
   <si>
-    <t>2014年2月7日 17:00</t>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
@@ -1177,34 +1072,13 @@
     <t>重启VM</t>
   </si>
   <si>
-    <t>2014年2月4日 8:00</t>
-  </si>
-  <si>
-    <t>2014年2月4日 17:00</t>
-  </si>
-  <si>
     <t>112</t>
   </si>
   <si>
-    <t>2014年2月5日 8:00</t>
-  </si>
-  <si>
-    <t>2014年2月5日 17:00</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
-    <t>2014年2月6日 8:00</t>
-  </si>
-  <si>
-    <t>2014年2月6日 17:00</t>
-  </si>
-  <si>
     <t>114</t>
-  </si>
-  <si>
-    <t>2014年2月7日 8:00</t>
   </si>
   <si>
     <t>完成情况</t>
@@ -1235,22 +1109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013年12月30日 13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013年12月24日 13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013年12月25日 13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013年12月26日 13:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈亮,陈毅文,张金华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1268,6 +1126,153 @@
   </si>
   <si>
     <t>目前暂时不需要这几个功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月1日 17:00</t>
+  </si>
+  <si>
+    <t>2013年10月31日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月1日 8:00</t>
+  </si>
+  <si>
+    <t>2013年11月4日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月6日 8:00</t>
+  </si>
+  <si>
+    <t>2013年11月8日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月11日 8:00</t>
+  </si>
+  <si>
+    <t>2013年11月18日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月19日 8:00</t>
+  </si>
+  <si>
+    <t>2013年11月20日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月21日 8:00</t>
+  </si>
+  <si>
+    <t>2013年11月21日 17:00</t>
+  </si>
+  <si>
+    <t>2013年11月22日 8:00</t>
+  </si>
+  <si>
+    <t>2013年12月2日 17:00</t>
+  </si>
+  <si>
+    <t>2013年12月3日 8:00</t>
+  </si>
+  <si>
+    <t>2013年12月4日 17:00</t>
+  </si>
+  <si>
+    <t>2013年12月5日 8:00</t>
+  </si>
+  <si>
+    <t>2013年12月6日 17:00</t>
+  </si>
+  <si>
+    <t>2013年12月9日 8:00</t>
+  </si>
+  <si>
+    <t>2013年12月16日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月16日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月17日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月17日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月18日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月18日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月20日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月20日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月24日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月25日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月26日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月27日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月27日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月30日 13:00</t>
+  </si>
+  <si>
+    <t>2013年12月31日 12:00</t>
+  </si>
+  <si>
+    <t>2013年12月31日 13:00</t>
+  </si>
+  <si>
+    <t>2014年1月14日 12:00</t>
+  </si>
+  <si>
+    <t>2014年1月15日 8:00</t>
+  </si>
+  <si>
+    <t>2014年1月22日 17:00</t>
+  </si>
+  <si>
+    <t>2014年1月17日 17:00</t>
+  </si>
+  <si>
+    <t>2014年1月20日 8:00</t>
+  </si>
+  <si>
+    <t>2014年1月23日 17:00</t>
+  </si>
+  <si>
+    <t>2014年1月24日 8:00</t>
+  </si>
+  <si>
+    <t>2014年1月24日 17:00</t>
+  </si>
+  <si>
+    <t>2014年1月27日 8:00</t>
+  </si>
+  <si>
+    <t>2014年1月30日 8:00</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,7 +1280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,13 +1343,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -1353,24 +1352,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1415,7 +1399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1427,25 +1411,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1453,6 +1422,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1799,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -1858,10 +1839,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>400</v>
+        <v>355</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1893,10 +1874,10 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>400</v>
+        <v>355</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1928,10 +1909,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>400</v>
+        <v>355</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
@@ -1968,7 +1949,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1985,14 +1966,14 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="8">
         <v>0.5</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>410</v>
+      <c r="K7" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2023,13 +2004,13 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="8">
         <v>0.5</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L8" s="18"/>
+      <c r="K8" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -2059,13 +2040,13 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="8">
         <v>0.5</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L9" s="18"/>
+      <c r="K9" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -2095,13 +2076,13 @@
       <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <v>0.5</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L10" s="18"/>
+      <c r="K10" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -2131,13 +2112,13 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <v>0.5</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L11" s="18"/>
+      <c r="K11" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -2167,13 +2148,13 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <v>0.5</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L12" s="18"/>
+      <c r="K12" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
@@ -2203,13 +2184,13 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="8">
         <v>0.5</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L13" s="18"/>
+      <c r="K13" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -2239,13 +2220,13 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <v>0.5</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L14" s="18"/>
+      <c r="K14" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
@@ -2275,13 +2256,13 @@
       <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="8">
         <v>0.5</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L15" s="18"/>
+      <c r="K15" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
@@ -2311,13 +2292,13 @@
       <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="8">
         <v>0.5</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L16" s="18"/>
+      <c r="K16" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
@@ -2347,13 +2328,13 @@
       <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="8">
         <v>0.5</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L17" s="18"/>
+      <c r="K17" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
@@ -2383,13 +2364,13 @@
       <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="8">
         <v>0.5</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L18" s="18"/>
+      <c r="K18" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
@@ -2419,13 +2400,13 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="8">
         <v>0.5</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L19" s="18"/>
+      <c r="K19" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
@@ -2455,13 +2436,13 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="8">
         <v>0.5</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L20" s="18"/>
+      <c r="K20" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
@@ -2491,13 +2472,13 @@
       <c r="I21" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="8">
         <v>0.5</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L21" s="18"/>
+      <c r="K21" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
@@ -2527,13 +2508,13 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="8">
         <v>0.5</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L22" s="18"/>
+      <c r="K22" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
@@ -2575,15 +2556,15 @@
         <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -2592,16 +2573,16 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="H25" t="s">
         <v>77</v>
@@ -2609,63 +2590,59 @@
       <c r="I25" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="J25" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>401</v>
-      </c>
+      <c r="F26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
         <v>100</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" t="s">
-        <v>102</v>
-      </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>367</v>
       </c>
       <c r="H27" t="s">
         <v>81</v>
@@ -2673,51 +2650,51 @@
       <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>401</v>
+      <c r="J27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>368</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>401</v>
+      <c r="J28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -2726,33 +2703,33 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -2761,33 +2738,33 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" t="s">
         <v>106</v>
       </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" t="s">
-        <v>109</v>
-      </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -2796,33 +2773,33 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -2831,33 +2808,33 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>372</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -2866,27 +2843,27 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -2895,33 +2872,33 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -2930,33 +2907,33 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -2965,33 +2942,33 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -3000,33 +2977,33 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -3035,33 +3012,33 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -3070,33 +3047,33 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>376</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -3105,62 +3082,58 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" t="s">
-        <v>158</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>401</v>
-      </c>
+      <c r="F41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -3169,33 +3142,33 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>401</v>
+      <c r="J42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -3204,33 +3177,33 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>401</v>
+      <c r="J43" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -3239,21 +3212,21 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -3262,30 +3235,30 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3294,33 +3267,33 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -3329,33 +3302,33 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -3364,33 +3337,33 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -3399,33 +3372,33 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -3434,33 +3407,33 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -3469,33 +3442,33 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G51" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K51" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -3504,33 +3477,33 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="G52" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -3539,33 +3512,33 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="H53" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -3574,33 +3547,33 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="H54" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K54" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -3609,33 +3582,33 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -3644,33 +3617,33 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G56" t="s">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="H56" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -3679,33 +3652,33 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="H57" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -3714,33 +3687,33 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>391</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -3749,33 +3722,33 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="H59" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="I59" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -3784,33 +3757,33 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>223</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H60" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -3819,33 +3792,33 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H61" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
         <v>21</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -3854,33 +3827,33 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>231</v>
+        <v>395</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -3889,33 +3862,33 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>397</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="H63" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="I63" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -3924,33 +3897,33 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="G64" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="H64" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -3959,33 +3932,33 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="G65" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H65" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K65" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -3994,33 +3967,33 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K66" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -4029,33 +4002,33 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="I67" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -4064,33 +4037,33 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="G68" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="H68" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="I68" t="s">
         <v>21</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -4099,33 +4072,33 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="H69" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="I69" t="s">
         <v>21</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -4134,33 +4107,33 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -4169,33 +4142,33 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="G71" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -4204,33 +4177,33 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="H72" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K72" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -4239,33 +4212,33 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="G73" t="s">
-        <v>276</v>
+        <v>401</v>
       </c>
       <c r="H73" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>401</v>
+        <v>356</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -4274,21 +4247,21 @@
         <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -4297,153 +4270,153 @@
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="13" customFormat="1">
-      <c r="A76" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="9" customFormat="1">
+      <c r="A76" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="13" t="s">
+      <c r="G76" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J76" s="14"/>
-      <c r="K76" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L76" s="19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="13" customFormat="1">
-      <c r="A77" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="I76" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="9" customFormat="1">
+      <c r="A77" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I77" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L77" s="19"/>
-    </row>
-    <row r="78" spans="1:12" s="13" customFormat="1">
-      <c r="A78" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="13" t="s">
+      <c r="I77" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="L77" s="14"/>
+    </row>
+    <row r="78" spans="1:12" s="9" customFormat="1">
+      <c r="A78" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L78" s="19"/>
-    </row>
-    <row r="79" spans="1:12" s="13" customFormat="1">
-      <c r="A79" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F79" s="13" t="s">
+      <c r="H78" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="L78" s="14"/>
+    </row>
+    <row r="79" spans="1:12" s="9" customFormat="1">
+      <c r="A79" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="L79" s="19"/>
+      <c r="H79" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="J79" s="10"/>
+      <c r="K79" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -4452,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
@@ -4464,21 +4437,21 @@
         <v>74</v>
       </c>
       <c r="H80" t="s">
-        <v>289</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J80" s="16">
+        <v>255</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J80" s="11">
         <v>0.4</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>400</v>
+      <c r="K80" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -4487,7 +4460,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
@@ -4499,21 +4472,21 @@
         <v>74</v>
       </c>
       <c r="H81" t="s">
-        <v>290</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J81" s="16">
+        <v>256</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J81" s="11">
         <v>0.3</v>
       </c>
-      <c r="K81" s="5" t="s">
-        <v>400</v>
+      <c r="K81" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -4522,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -4534,21 +4507,21 @@
         <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>292</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J82" s="16">
+        <v>258</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J82" s="11">
         <v>0.3</v>
       </c>
-      <c r="K82" s="5" t="s">
-        <v>400</v>
+      <c r="K82" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -4557,7 +4530,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
@@ -4569,21 +4542,21 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="J83" s="16">
+        <v>260</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="J83" s="11">
         <v>0.5</v>
       </c>
-      <c r="K83" s="5" t="s">
-        <v>400</v>
+      <c r="K83" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -4592,33 +4565,33 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>296</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>407</v>
+        <v>262</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -4627,33 +4600,33 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>298</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>407</v>
+        <v>264</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -4662,33 +4635,33 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G86" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H86" t="s">
-        <v>300</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>407</v>
+        <v>266</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -4697,33 +4670,33 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="H87" t="s">
-        <v>303</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>407</v>
+        <v>269</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -4732,33 +4705,33 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="G88" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="H88" t="s">
-        <v>305</v>
-      </c>
-      <c r="I88" s="17" t="s">
-        <v>407</v>
+        <v>271</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -4767,33 +4740,33 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="G89" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s">
-        <v>309</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>407</v>
+        <v>275</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -4802,33 +4775,33 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G90" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="H90" t="s">
-        <v>311</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>407</v>
+        <v>277</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -4837,33 +4810,33 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="H91" t="s">
-        <v>315</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>407</v>
+        <v>281</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K91" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -4872,33 +4845,33 @@
         <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="G92" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>407</v>
+        <v>283</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K92" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -4907,33 +4880,33 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="G93" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="H93" t="s">
-        <v>321</v>
-      </c>
-      <c r="I93" s="17" t="s">
-        <v>407</v>
+        <v>287</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K93" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -4942,33 +4915,33 @@
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G94" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="H94" t="s">
-        <v>323</v>
-      </c>
-      <c r="I94" s="17" t="s">
-        <v>407</v>
+        <v>289</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K94" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -4977,33 +4950,33 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G95" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="H95" t="s">
-        <v>327</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>407</v>
+        <v>293</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K95" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -5012,33 +4985,33 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="G96" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="H96" t="s">
-        <v>328</v>
-      </c>
-      <c r="I96" s="17" t="s">
-        <v>407</v>
+        <v>294</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -5047,33 +5020,33 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="G97" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="H97" t="s">
-        <v>332</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>407</v>
+        <v>298</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K97" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -5082,33 +5055,33 @@
         <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G98" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H98" t="s">
-        <v>334</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>407</v>
+        <v>300</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -5117,33 +5090,33 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="G99" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="H99" t="s">
-        <v>338</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>407</v>
+        <v>304</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -5152,33 +5125,33 @@
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G100" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H100" t="s">
-        <v>340</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>407</v>
+        <v>306</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K100" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -5187,33 +5160,33 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G101" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="H101" t="s">
-        <v>344</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>407</v>
+        <v>310</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K101" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -5222,33 +5195,33 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="G102" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="H102" t="s">
-        <v>346</v>
-      </c>
-      <c r="I102" s="17" t="s">
-        <v>407</v>
+        <v>312</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K102" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -5257,33 +5230,33 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="G103" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="H103" t="s">
-        <v>350</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>407</v>
+        <v>316</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>400</v>
+        <v>356</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5292,21 +5265,21 @@
         <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -5315,33 +5288,33 @@
         <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="E105" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F105" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="G105" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="H105" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="I105" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -5350,33 +5323,33 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F106" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G106" t="s">
+        <v>403</v>
+      </c>
+      <c r="H106" t="s">
+        <v>320</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K106" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="H106" t="s">
-        <v>354</v>
-      </c>
-      <c r="I106" t="s">
-        <v>21</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5385,22 +5358,22 @@
         <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K107" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="K107" s="7"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -5409,30 +5382,30 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="G108" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="I108" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -5441,33 +5414,33 @@
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G109" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="H109" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="I109" t="s">
         <v>21</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -5476,33 +5449,33 @@
         <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="G110" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="H110" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K110" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -5511,33 +5484,33 @@
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
       <c r="H111" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -5546,33 +5519,33 @@
         <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="G112" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="H112" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -5581,33 +5554,33 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E113" t="s">
         <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="G113" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="H113" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -5616,33 +5589,33 @@
         <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="G114" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="H114" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -5651,28 +5624,28 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="G115" t="s">
-        <v>371</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>402</v>
+        <v>356</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
+++ b/trunk/System_Center_2012/doc/3.项目策划/自服务任务计划完成情况表-2013.10.8.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="13740"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19080" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="任务数据" sheetId="1" r:id="rId1"/>
+    <sheet name="自服务项目进度" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="任务数据">任务数据!$A$1:$I$1</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="656">
   <si>
     <t>ID</t>
   </si>
@@ -133,9 +134,6 @@
     <t>2013年10月8日 17:00</t>
   </si>
   <si>
-    <t>周文</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -1109,10 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈亮,陈毅文,张金华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆页面设计图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,6 +1267,982 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅文,张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅文,张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月22日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月22日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月21日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月23日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月23日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月24日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月24日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月25日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月25日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月21日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云集群搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群创建VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月16日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有VM-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM开机-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM关机-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM重启-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM的CPU数量-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM内存-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除VM-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vyata交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微软sharepoint交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式存储文件系统交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机迁移交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅文，张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemCenter交接(网络模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改VM-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月28日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月28日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取硬盘大小-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM内存-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置硬盘大小-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月29日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM主机名-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM摘要-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM缩略图-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM主机名-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM状态-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM的CPU数量-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM内存-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取硬盘大小-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM的CPU个数-脚本整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群创建VM-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM的CPU个数-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM内存-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置硬盘大小-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除VM-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月29日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月30日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月30日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VM重装系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张金华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月1日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月31日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改VM-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM主机名-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM摘要-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取VM缩略图-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM主机名-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置VM状态-java开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年10月31日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerShell接口开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审页面设计与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月1日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮,周雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮，张金华，张建华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月4日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月4日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月5日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月5日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web前台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月6日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月7日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月8日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月8日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月11日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月11日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审测试与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口评审测试与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月12日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月12日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月13日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月14日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月14日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月13日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审，测试与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月15日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月15日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈亮，张建华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月18日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月18日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认订单，订单支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括登陆密码修改，密保问题设置，手机绑定，上传头像，个人信息显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月19日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括订单的操作和查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月20日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月20日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月21日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月21日12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月22日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审，测试与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月25日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月25日17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMS后台管理系统开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月26日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月27日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月27日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月28日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审，测试与bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月2日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月2日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月3日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月4日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月5日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月6日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月6日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密保问题设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月19日8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月26日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月26日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月27日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月28日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年11月28日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月3日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月3日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月4日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月4日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月5日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月5日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理-禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理-初始化密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务于产品-配置管理-配置查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务于产品-配置管理-配置修改，删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务于产品-配置管理-制定配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务于产品-配置管理-制定价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台管理-VMM列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台管理-VMM详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台管理-VMM开机，关机，重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月9日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月9日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO管理-添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO管理-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO管理-删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO管理-修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月10日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月10日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月10日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月11日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月11日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月11日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机与租户的关系列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月12日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月12日 12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月12日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月13日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改，删除虚拟机与租户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月13日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月16日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月16日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月17日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月17日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月18日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月18日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHD磁盘列表，虚拟机存放的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHD详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审，测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月19日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月19日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月20日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月20日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月23日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月25日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月26日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月30日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能评审，测试，bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月31日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年12月31日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建VM流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户购买流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户试用流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机试用流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月6日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月6日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月7日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月7日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月8日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月8日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月9日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月9日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月10日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月14日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月15日 8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年1月16日 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML静态页面的开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +2250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +2330,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1399,7 +2378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1417,12 +2396,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,6 +2408,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1738,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1748,7 +2749,7 @@
     <col min="4" max="4" width="30.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1">
@@ -1780,13 +2781,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1">
@@ -1839,10 +2840,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1874,10 +2875,10 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1909,10 +2910,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1">
@@ -1949,7 +2950,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1964,30 +2965,30 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J7" s="8">
         <v>0.5</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>364</v>
+      <c r="K7" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -2002,523 +3003,523 @@
         <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J8" s="8">
         <v>0.5</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J9" s="8">
         <v>0.5</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J10" s="8">
         <v>0.5</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J11" s="8">
         <v>0.5</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J13" s="8">
         <v>0.5</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J14" s="8">
         <v>0.5</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J15" s="8">
         <v>0.5</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
         <v>61</v>
       </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J16" s="8">
         <v>0.5</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J17" s="8">
         <v>0.5</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>36</v>
       </c>
       <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J18" s="8">
         <v>0.5</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>
       </c>
       <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J19" s="8">
         <v>0.5</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L19" s="13"/>
+      <c r="K19" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J20" s="8">
         <v>0.5</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J21" s="8">
         <v>0.5</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L21" s="13"/>
+      <c r="K21" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
       </c>
       <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="J22" s="8">
         <v>0.5</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
@@ -2527,21 +3528,21 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
@@ -2550,56 +3551,56 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
@@ -2608,507 +3609,507 @@
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="15"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
       <c r="F27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G27" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>103</v>
       </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
         <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>111</v>
-      </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
         <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
         <v>120</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
-        <v>122</v>
-      </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
         <v>125</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
         <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" t="s">
         <v>115</v>
       </c>
-      <c r="G35" t="s">
-        <v>116</v>
-      </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
         <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>131</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
         <v>134</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
         <v>137</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
         <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
         <v>143</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>144</v>
-      </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>411</v>
+        <v>355</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
@@ -3117,93 +4118,93 @@
         <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="15"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
         <v>150</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" t="s">
-        <v>151</v>
-      </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K42" s="15" t="s">
         <v>411</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
         <v>153</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" t="s">
-        <v>154</v>
-      </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K43" s="15" t="s">
         <v>411</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -3212,1033 +4213,1033 @@
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>160</v>
-      </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
         <v>161</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
         <v>163</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
         <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
       </c>
       <c r="E48" t="s">
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I48" t="s">
         <v>21</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
         <v>169</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>170</v>
       </c>
       <c r="E49" t="s">
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I49" t="s">
         <v>21</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
         <v>173</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>174</v>
       </c>
       <c r="E50" t="s">
         <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I50" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
         <v>176</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>177</v>
       </c>
       <c r="E51" t="s">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
         <v>21</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K51" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
         <v>178</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>179</v>
       </c>
       <c r="E52" t="s">
         <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
         <v>21</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K52" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
         <v>180</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>181</v>
-      </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I53" t="s">
         <v>21</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K53" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
         <v>182</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>183</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" t="s">
         <v>171</v>
       </c>
-      <c r="G54" t="s">
-        <v>172</v>
-      </c>
       <c r="H54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I54" t="s">
         <v>21</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
         <v>184</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>185</v>
       </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G55" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I55" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K55" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
         <v>188</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>189</v>
       </c>
       <c r="E56" t="s">
         <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I56" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
         <v>191</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>192</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G57" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
         <v>21</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
         <v>194</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
-      </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G58" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
         <v>21</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
         <v>197</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>198</v>
-      </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I59" t="s">
         <v>21</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
         <v>200</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>201</v>
       </c>
       <c r="E60" t="s">
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I60" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K60" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
         <v>204</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>205</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I61" t="s">
         <v>21</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K61" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
         <v>208</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>209</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I62" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
         <v>211</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>212</v>
       </c>
       <c r="E63" t="s">
         <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I63" t="s">
         <v>21</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
         <v>214</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" t="s">
-        <v>215</v>
       </c>
       <c r="E64" t="s">
         <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G64" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I64" t="s">
         <v>21</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
         <v>218</v>
-      </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
-        <v>219</v>
       </c>
       <c r="E65" t="s">
         <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I65" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K65" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
         <v>222</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>223</v>
       </c>
       <c r="E66" t="s">
         <v>36</v>
       </c>
       <c r="F66" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" t="s">
         <v>202</v>
       </c>
-      <c r="G66" t="s">
-        <v>203</v>
-      </c>
       <c r="H66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I66" t="s">
         <v>21</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
         <v>226</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
-        <v>227</v>
       </c>
       <c r="E67" t="s">
         <v>36</v>
       </c>
       <c r="F67" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" t="s">
         <v>206</v>
       </c>
-      <c r="G67" t="s">
-        <v>207</v>
-      </c>
       <c r="H67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I67" t="s">
         <v>21</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
         <v>230</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
-        <v>231</v>
-      </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I68" t="s">
         <v>21</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
         <v>233</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="s">
-        <v>234</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
       </c>
       <c r="F69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" t="s">
         <v>216</v>
       </c>
-      <c r="G69" t="s">
-        <v>217</v>
-      </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I69" t="s">
         <v>21</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
         <v>235</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" t="s">
-        <v>236</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
       </c>
       <c r="F70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G70" t="s">
         <v>220</v>
       </c>
-      <c r="G70" t="s">
-        <v>221</v>
-      </c>
       <c r="H70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I70" t="s">
         <v>21</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
         <v>237</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" t="s">
-        <v>238</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
       </c>
       <c r="F71" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" t="s">
         <v>224</v>
       </c>
-      <c r="G71" t="s">
-        <v>225</v>
-      </c>
       <c r="H71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I71" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K71" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
         <v>239</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" t="s">
-        <v>240</v>
       </c>
       <c r="E72" t="s">
         <v>36</v>
       </c>
       <c r="F72" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" t="s">
         <v>228</v>
       </c>
-      <c r="G72" t="s">
-        <v>229</v>
-      </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I72" t="s">
         <v>21</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K72" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
         <v>241</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" t="s">
-        <v>242</v>
       </c>
       <c r="E73" t="s">
         <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G73" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I73" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K73" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>10</v>
@@ -4247,21 +5248,21 @@
         <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>10</v>
@@ -4270,85 +5271,85 @@
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="9" customFormat="1">
       <c r="A76" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="I76" s="9" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J76" s="10"/>
-      <c r="K76" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="L76" s="14" t="s">
-        <v>365</v>
+      <c r="K76" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="9" customFormat="1">
       <c r="A77" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="I77" s="9" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J77" s="10"/>
-      <c r="K77" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="L77" s="14"/>
+      <c r="K77" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" spans="1:12" s="9" customFormat="1">
       <c r="A78" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>10</v>
@@ -4357,521 +5358,521 @@
         <v>17</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H78" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J78" s="10"/>
-      <c r="K78" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="L78" s="14"/>
+      <c r="K78" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L78" s="24"/>
     </row>
     <row r="79" spans="1:12" s="9" customFormat="1">
       <c r="A79" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F79" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G79" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H79" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="J79" s="10"/>
-      <c r="K79" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="L79" s="14"/>
+      <c r="K79" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L79" s="24"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>259</v>
       </c>
       <c r="E80" t="s">
         <v>36</v>
       </c>
       <c r="F80" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" t="s">
         <v>73</v>
       </c>
-      <c r="G80" t="s">
-        <v>74</v>
-      </c>
       <c r="H80" t="s">
-        <v>255</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>361</v>
+        <v>254</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="J80" s="11">
         <v>0.4</v>
       </c>
-      <c r="K80" s="15" t="s">
-        <v>358</v>
+      <c r="K80" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" t="s">
-        <v>261</v>
       </c>
       <c r="E81" t="s">
         <v>36</v>
       </c>
       <c r="F81" t="s">
+        <v>72</v>
+      </c>
+      <c r="G81" t="s">
         <v>73</v>
       </c>
-      <c r="G81" t="s">
-        <v>74</v>
-      </c>
       <c r="H81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J81" s="11">
         <v>0.3</v>
       </c>
-      <c r="K81" s="15" t="s">
-        <v>358</v>
+      <c r="K81" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" t="s">
-        <v>263</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
       </c>
       <c r="F82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s">
         <v>79</v>
       </c>
-      <c r="G82" t="s">
-        <v>80</v>
-      </c>
       <c r="H82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J82" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>358</v>
+        <v>0.8</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" t="s">
-        <v>265</v>
       </c>
       <c r="E83" t="s">
         <v>36</v>
       </c>
       <c r="F83" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s">
         <v>79</v>
       </c>
-      <c r="G83" t="s">
-        <v>80</v>
-      </c>
       <c r="H83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J83" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>0.8</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" t="s">
-        <v>267</v>
       </c>
       <c r="E84" t="s">
         <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>358</v>
+        <v>413</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
+        <v>268</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" t="s">
-        <v>270</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>358</v>
+        <v>413</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>271</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>272</v>
       </c>
       <c r="E86" t="s">
         <v>36</v>
       </c>
       <c r="F86" t="s">
+        <v>272</v>
+      </c>
+      <c r="G86" t="s">
         <v>273</v>
       </c>
-      <c r="G86" t="s">
-        <v>274</v>
-      </c>
       <c r="H86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K86" s="15" t="s">
-        <v>358</v>
+        <v>413</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" t="s">
-        <v>276</v>
       </c>
       <c r="E87" t="s">
         <v>36</v>
       </c>
       <c r="F87" t="s">
+        <v>272</v>
+      </c>
+      <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="G87" t="s">
-        <v>274</v>
-      </c>
       <c r="H87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K87" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" t="s">
-        <v>278</v>
       </c>
       <c r="E88" t="s">
         <v>36</v>
       </c>
       <c r="F88" t="s">
+        <v>278</v>
+      </c>
+      <c r="G88" t="s">
         <v>279</v>
       </c>
-      <c r="G88" t="s">
-        <v>280</v>
-      </c>
       <c r="H88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>282</v>
       </c>
       <c r="E89" t="s">
         <v>36</v>
       </c>
       <c r="F89" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" t="s">
         <v>279</v>
       </c>
-      <c r="G89" t="s">
-        <v>280</v>
-      </c>
       <c r="H89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" t="s">
-        <v>284</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
       </c>
       <c r="F90" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" t="s">
         <v>285</v>
       </c>
-      <c r="G90" t="s">
-        <v>286</v>
-      </c>
       <c r="H90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
         <v>287</v>
-      </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" t="s">
-        <v>288</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
       </c>
       <c r="F91" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" t="s">
         <v>285</v>
       </c>
-      <c r="G91" t="s">
-        <v>286</v>
-      </c>
       <c r="H91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" t="s">
-        <v>290</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92" t="s">
+        <v>290</v>
+      </c>
+      <c r="G92" t="s">
         <v>291</v>
       </c>
-      <c r="G92" t="s">
-        <v>292</v>
-      </c>
       <c r="H92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K92" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -4879,384 +5880,384 @@
       <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="D93" t="s">
-        <v>263</v>
+      <c r="D93" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
       </c>
       <c r="F93" t="s">
+        <v>290</v>
+      </c>
+      <c r="G93" t="s">
         <v>291</v>
       </c>
-      <c r="G93" t="s">
-        <v>292</v>
-      </c>
       <c r="H93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K93" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" t="s">
-        <v>295</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
       </c>
       <c r="F94" t="s">
+        <v>295</v>
+      </c>
+      <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="G94" t="s">
-        <v>297</v>
-      </c>
       <c r="H94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K94" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" t="s">
-        <v>299</v>
       </c>
       <c r="E95" t="s">
         <v>36</v>
       </c>
       <c r="F95" t="s">
+        <v>295</v>
+      </c>
+      <c r="G95" t="s">
         <v>296</v>
       </c>
-      <c r="G95" t="s">
-        <v>297</v>
-      </c>
       <c r="H95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K95" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
+        <v>299</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" t="s">
-        <v>301</v>
       </c>
       <c r="E96" t="s">
         <v>36</v>
       </c>
       <c r="F96" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" t="s">
         <v>302</v>
       </c>
-      <c r="G96" t="s">
-        <v>303</v>
-      </c>
       <c r="H96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
         <v>304</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" t="s">
-        <v>305</v>
       </c>
       <c r="E97" t="s">
         <v>36</v>
       </c>
       <c r="F97" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" t="s">
         <v>302</v>
       </c>
-      <c r="G97" t="s">
-        <v>303</v>
-      </c>
       <c r="H97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K97" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
         <v>306</v>
-      </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" t="s">
-        <v>307</v>
       </c>
       <c r="E98" t="s">
         <v>36</v>
       </c>
       <c r="F98" t="s">
+        <v>307</v>
+      </c>
+      <c r="G98" t="s">
         <v>308</v>
       </c>
-      <c r="G98" t="s">
-        <v>309</v>
-      </c>
       <c r="H98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K98" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" t="s">
-        <v>311</v>
       </c>
       <c r="E99" t="s">
         <v>36</v>
       </c>
       <c r="F99" t="s">
+        <v>307</v>
+      </c>
+      <c r="G99" t="s">
         <v>308</v>
       </c>
-      <c r="G99" t="s">
-        <v>309</v>
-      </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K99" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
+        <v>311</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" t="s">
-        <v>313</v>
       </c>
       <c r="E100" t="s">
         <v>36</v>
       </c>
       <c r="F100" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" t="s">
         <v>314</v>
       </c>
-      <c r="G100" t="s">
-        <v>315</v>
-      </c>
       <c r="H100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K100" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" t="s">
-        <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>36</v>
       </c>
       <c r="F101" t="s">
+        <v>313</v>
+      </c>
+      <c r="G101" t="s">
         <v>314</v>
       </c>
-      <c r="G101" t="s">
-        <v>315</v>
-      </c>
       <c r="H101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K101" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" t="s">
-        <v>319</v>
       </c>
       <c r="E102" t="s">
         <v>36</v>
       </c>
       <c r="F102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K102" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" t="s">
-        <v>321</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H103" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K103" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
@@ -5265,91 +6266,91 @@
         <v>11</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
         <v>327</v>
       </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" t="s">
-        <v>328</v>
-      </c>
       <c r="E105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F105" t="s">
+        <v>400</v>
+      </c>
+      <c r="G105" t="s">
         <v>402</v>
       </c>
-      <c r="G105" t="s">
-        <v>404</v>
-      </c>
       <c r="H105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I105" t="s">
         <v>21</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K105" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
         <v>330</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" t="s">
-        <v>331</v>
-      </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F106" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G106" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I106" t="s">
         <v>21</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K106" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>10</v>
@@ -5358,54 +6359,54 @@
         <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="F107" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K107" s="7"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
+        <v>336</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
         <v>337</v>
-      </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>338</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G108" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I108" t="s">
         <v>21</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K108" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -5414,138 +6415,138 @@
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G109" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I109" t="s">
         <v>21</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K109" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
         <v>342</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" t="s">
-        <v>343</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G110" t="s">
+        <v>328</v>
+      </c>
+      <c r="H110" t="s">
         <v>329</v>
-      </c>
-      <c r="H110" t="s">
-        <v>330</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K110" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
+        <v>345</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
         <v>346</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>347</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G111" t="s">
+        <v>340</v>
+      </c>
+      <c r="H111" t="s">
         <v>341</v>
-      </c>
-      <c r="H111" t="s">
-        <v>342</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K111" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
+        <v>348</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
         <v>349</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>350</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I112" t="s">
         <v>21</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K112" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -5554,33 +6555,33 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
         <v>36</v>
       </c>
       <c r="F113" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I113" t="s">
         <v>21</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K113" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -5589,33 +6590,33 @@
         <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
+        <v>343</v>
+      </c>
+      <c r="G114" t="s">
         <v>344</v>
       </c>
-      <c r="G114" t="s">
-        <v>345</v>
-      </c>
       <c r="H114" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I114" t="s">
         <v>21</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K114" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -5624,28 +6625,28 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5657,4 +6658,2407 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G12" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" t="s">
+        <v>450</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" t="s">
+        <v>450</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G16" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G19" t="s">
+        <v>432</v>
+      </c>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G20" t="s">
+        <v>432</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G21" t="s">
+        <v>432</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G22" t="s">
+        <v>432</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C23" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G23" t="s">
+        <v>432</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G24" t="s">
+        <v>432</v>
+      </c>
+      <c r="H24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" t="s">
+        <v>432</v>
+      </c>
+      <c r="H26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G27" t="s">
+        <v>432</v>
+      </c>
+      <c r="H27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" t="s">
+        <v>432</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G29" t="s">
+        <v>432</v>
+      </c>
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" t="s">
+        <v>432</v>
+      </c>
+      <c r="H30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G31" t="s">
+        <v>432</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G32" t="s">
+        <v>432</v>
+      </c>
+      <c r="H32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" t="s">
+        <v>453</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G33" t="s">
+        <v>470</v>
+      </c>
+      <c r="H33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G35" t="s">
+        <v>470</v>
+      </c>
+      <c r="H35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G36" t="s">
+        <v>483</v>
+      </c>
+      <c r="H36" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C37" t="s">
+        <v>453</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G37" t="s">
+        <v>470</v>
+      </c>
+      <c r="H37" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G38" t="s">
+        <v>470</v>
+      </c>
+      <c r="H38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" t="s">
+        <v>453</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G40" t="s">
+        <v>470</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" t="s">
+        <v>482</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G41" t="s">
+        <v>498</v>
+      </c>
+      <c r="H41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" ht="18.75">
+      <c r="A44" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>486</v>
+      </c>
+      <c r="C45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G45" t="s">
+        <v>470</v>
+      </c>
+      <c r="H45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G46" t="s">
+        <v>470</v>
+      </c>
+      <c r="H46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>488</v>
+      </c>
+      <c r="C47" t="s">
+        <v>453</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G47" t="s">
+        <v>417</v>
+      </c>
+      <c r="H47" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>489</v>
+      </c>
+      <c r="C48" t="s">
+        <v>453</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G48" t="s">
+        <v>470</v>
+      </c>
+      <c r="H48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>490</v>
+      </c>
+      <c r="C49" t="s">
+        <v>453</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H49" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G50" t="s">
+        <v>470</v>
+      </c>
+      <c r="H50" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G51" t="s">
+        <v>470</v>
+      </c>
+      <c r="H51" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>511</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G52" t="s">
+        <v>470</v>
+      </c>
+      <c r="H52" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="H53" s="28"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="H54" s="28"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>482</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="G55" t="s">
+        <v>470</v>
+      </c>
+      <c r="H55" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G56" t="s">
+        <v>470</v>
+      </c>
+      <c r="H56" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>515</v>
+      </c>
+      <c r="C57" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G57" t="s">
+        <v>470</v>
+      </c>
+      <c r="H57" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="40.5">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>555</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="G58" t="s">
+        <v>470</v>
+      </c>
+      <c r="H58" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>556</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="H59" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="H60" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>558</v>
+      </c>
+      <c r="C61" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="H61" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>520</v>
+      </c>
+      <c r="C62" t="s">
+        <v>482</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="G62" t="s">
+        <v>523</v>
+      </c>
+      <c r="H62" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="H63" s="28"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>564</v>
+      </c>
+      <c r="C65" t="s">
+        <v>499</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" t="s">
+        <v>470</v>
+      </c>
+      <c r="H65" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>561</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="H66" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>562</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="H67" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F68" s="20"/>
+      <c r="H68" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G69" t="s">
+        <v>470</v>
+      </c>
+      <c r="H69" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>58</v>
+      </c>
+      <c r="B70" t="s">
+        <v>567</v>
+      </c>
+      <c r="C70" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H70" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>59</v>
+      </c>
+      <c r="B71" t="s">
+        <v>559</v>
+      </c>
+      <c r="C71" t="s">
+        <v>453</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H71" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>560</v>
+      </c>
+      <c r="C72" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H72" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>535</v>
+      </c>
+      <c r="C73" t="s">
+        <v>536</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G73" t="s">
+        <v>470</v>
+      </c>
+      <c r="H73" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>538</v>
+      </c>
+      <c r="C74" t="s">
+        <v>539</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G74" t="s">
+        <v>523</v>
+      </c>
+      <c r="H74" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="H76" s="28"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.75">
+      <c r="A77" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="28"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>583</v>
+      </c>
+      <c r="C78" t="s">
+        <v>499</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" t="s">
+        <v>470</v>
+      </c>
+      <c r="H78" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>584</v>
+      </c>
+      <c r="C79" t="s">
+        <v>499</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79" t="s">
+        <v>470</v>
+      </c>
+      <c r="H79" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
+        <v>582</v>
+      </c>
+      <c r="C80" t="s">
+        <v>499</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G80" t="s">
+        <v>470</v>
+      </c>
+      <c r="H80" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>579</v>
+      </c>
+      <c r="C81" t="s">
+        <v>499</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G81" t="s">
+        <v>470</v>
+      </c>
+      <c r="H81" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" t="s">
+        <v>580</v>
+      </c>
+      <c r="C82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G82" t="s">
+        <v>470</v>
+      </c>
+      <c r="H82" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>581</v>
+      </c>
+      <c r="C83" t="s">
+        <v>499</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G83" t="s">
+        <v>470</v>
+      </c>
+      <c r="H83" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>547</v>
+      </c>
+      <c r="C84" t="s">
+        <v>482</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G84" t="s">
+        <v>523</v>
+      </c>
+      <c r="H84" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="H85" s="28"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="H86" s="28"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>585</v>
+      </c>
+      <c r="C87" t="s">
+        <v>439</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" t="s">
+        <v>470</v>
+      </c>
+      <c r="H87" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>586</v>
+      </c>
+      <c r="C88" t="s">
+        <v>439</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" t="s">
+        <v>470</v>
+      </c>
+      <c r="H88" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" t="s">
+        <v>587</v>
+      </c>
+      <c r="C89" t="s">
+        <v>439</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" t="s">
+        <v>470</v>
+      </c>
+      <c r="H89" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" t="s">
+        <v>588</v>
+      </c>
+      <c r="C90" t="s">
+        <v>439</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" t="s">
+        <v>470</v>
+      </c>
+      <c r="H90" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
+        <v>589</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G91" t="s">
+        <v>470</v>
+      </c>
+      <c r="H91" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" t="s">
+        <v>590</v>
+      </c>
+      <c r="C92" t="s">
+        <v>499</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G92" t="s">
+        <v>470</v>
+      </c>
+      <c r="H92" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93" t="s">
+        <v>494</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G93" t="s">
+        <v>523</v>
+      </c>
+      <c r="H93" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="H94" s="28"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="H95" s="28"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" t="s">
+        <v>591</v>
+      </c>
+      <c r="C96" t="s">
+        <v>494</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G96" t="s">
+        <v>470</v>
+      </c>
+      <c r="H96" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" t="s">
+        <v>594</v>
+      </c>
+      <c r="C97" t="s">
+        <v>598</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="G97" t="s">
+        <v>470</v>
+      </c>
+      <c r="H97" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
+        <v>598</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="G98" t="s">
+        <v>470</v>
+      </c>
+      <c r="H98" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" t="s">
+        <v>596</v>
+      </c>
+      <c r="C99" t="s">
+        <v>598</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G99" t="s">
+        <v>470</v>
+      </c>
+      <c r="H99" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" t="s">
+        <v>597</v>
+      </c>
+      <c r="C100" t="s">
+        <v>598</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G100" t="s">
+        <v>470</v>
+      </c>
+      <c r="H100" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" t="s">
+        <v>448</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G101" t="s">
+        <v>470</v>
+      </c>
+      <c r="H101" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" t="s">
+        <v>610</v>
+      </c>
+      <c r="C102" t="s">
+        <v>448</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G102" t="s">
+        <v>470</v>
+      </c>
+      <c r="H102" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" t="s">
+        <v>538</v>
+      </c>
+      <c r="C103" t="s">
+        <v>494</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G103" t="s">
+        <v>523</v>
+      </c>
+      <c r="H103" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="H104" s="28"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="H105" s="28"/>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" t="s">
+        <v>494</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G106" t="s">
+        <v>470</v>
+      </c>
+      <c r="H106" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>494</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G107" t="s">
+        <v>470</v>
+      </c>
+      <c r="H107" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" t="s">
+        <v>618</v>
+      </c>
+      <c r="C108" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="G108" t="s">
+        <v>470</v>
+      </c>
+      <c r="H108" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" t="s">
+        <v>619</v>
+      </c>
+      <c r="C109" t="s">
+        <v>499</v>
+      </c>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="G109" t="s">
+        <v>470</v>
+      </c>
+      <c r="H109" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" t="s">
+        <v>620</v>
+      </c>
+      <c r="C110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G110" t="s">
+        <v>523</v>
+      </c>
+      <c r="H110" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" t="s">
+        <v>621</v>
+      </c>
+      <c r="C111" t="s">
+        <v>494</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G111" t="s">
+        <v>523</v>
+      </c>
+      <c r="H111" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="H112" s="28"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="H113" s="28"/>
+    </row>
+    <row r="114" spans="1:8" ht="18.75">
+      <c r="A114" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="28"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>327</v>
+      </c>
+      <c r="C115" t="s">
+        <v>527</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="G115" t="s">
+        <v>470</v>
+      </c>
+      <c r="H115" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" t="s">
+        <v>527</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G116" t="s">
+        <v>470</v>
+      </c>
+      <c r="H116" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" t="s">
+        <v>631</v>
+      </c>
+      <c r="C117" t="s">
+        <v>494</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G117" t="s">
+        <v>470</v>
+      </c>
+      <c r="H117" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="H118" s="28"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="H119" s="28"/>
+    </row>
+    <row r="120" spans="1:8" ht="18.75">
+      <c r="A120" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="28"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>636</v>
+      </c>
+      <c r="C121" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G121" t="s">
+        <v>470</v>
+      </c>
+      <c r="H121" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>637</v>
+      </c>
+      <c r="C122" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G122" t="s">
+        <v>470</v>
+      </c>
+      <c r="H122" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
+        <v>638</v>
+      </c>
+      <c r="C123" t="s">
+        <v>482</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G123" t="s">
+        <v>470</v>
+      </c>
+      <c r="H123" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>639</v>
+      </c>
+      <c r="C124" t="s">
+        <v>482</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G124" t="s">
+        <v>470</v>
+      </c>
+      <c r="H124" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>635</v>
+      </c>
+      <c r="C125" t="s">
+        <v>482</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G125" t="s">
+        <v>470</v>
+      </c>
+      <c r="H125" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1">
+      <c r="B126" t="s">
+        <v>640</v>
+      </c>
+      <c r="C126" t="s">
+        <v>527</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G126" t="s">
+        <v>470</v>
+      </c>
+      <c r="H126" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>651</v>
+      </c>
+      <c r="C127" t="s">
+        <v>652</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G127" t="s">
+        <v>470</v>
+      </c>
+      <c r="H127" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18.75">
+      <c r="A130" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A120:G120"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>